--- a/fuentes/contenidos/grado09/guion03/EsqueletoGuion_CS_09_03_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion03/EsqueletoGuion_CS_09_03_CO.xlsx
@@ -161,9 +161,6 @@
     <t>Causas de la Revolución</t>
   </si>
   <si>
-    <t>Inicio de la Revolución</t>
-  </si>
-  <si>
     <t>Sublevaciones en el norte</t>
   </si>
   <si>
@@ -294,6 +291,9 @@
   </si>
   <si>
     <t>Regímenes políticos en América Latina</t>
+  </si>
+  <si>
+    <t>El desarrollo de la Revolución</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1699,7 +1699,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1801,13 +1801,13 @@
         <v>38</v>
       </c>
       <c r="C2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>85</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>86</v>
       </c>
       <c r="F2" s="41">
         <v>12</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>31</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>31</v>
@@ -1883,10 +1883,10 @@
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="45">
         <v>3</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>31</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="45">
         <v>5</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="45">
         <v>6</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="56" t="s">
         <v>31</v>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" s="56" t="s">
         <v>31</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>31</v>
@@ -1961,7 +1961,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="56" t="s">
         <v>31</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="56" t="s">
         <v>31</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="46">
         <v>13</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="56" t="s">
         <v>31</v>
@@ -2005,7 +2005,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="56" t="s">
         <v>31</v>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="51" t="s">
         <v>31</v>
@@ -2109,7 +2109,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>31</v>
@@ -2121,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>31</v>
@@ -2133,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>31</v>
@@ -2145,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>31</v>
@@ -2157,7 +2157,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>31</v>
@@ -2169,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>31</v>
@@ -2181,7 +2181,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>31</v>
@@ -2193,7 +2193,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>31</v>
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>31</v>
@@ -2217,7 +2217,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>31</v>
@@ -2229,10 +2229,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="54"/>
     </row>
@@ -2241,7 +2241,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" s="51" t="s">
         <v>31</v>
@@ -2253,7 +2253,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>31</v>
@@ -2265,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="51" t="s">
         <v>31</v>
@@ -2349,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="89" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>41</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>41</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>41</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>41</v>
@@ -2473,14 +2473,14 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>22</v>
@@ -2493,14 +2493,14 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>27</v>
@@ -2513,18 +2513,18 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>22</v>
@@ -2535,18 +2535,18 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>27</v>
@@ -2557,18 +2557,18 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>22</v>
@@ -2579,18 +2579,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>22</v>
@@ -2601,18 +2601,18 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>27</v>
@@ -2623,18 +2623,18 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="35"/>
       <c r="D13" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>22</v>
@@ -2645,18 +2645,18 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E14" s="36"/>
       <c r="F14" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>27</v>
@@ -2667,18 +2667,18 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>22</v>
@@ -2689,24 +2689,24 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="37" t="s">
         <v>31</v>
@@ -2718,18 +2718,18 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E17" s="36"/>
       <c r="F17" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>22</v>
@@ -2740,18 +2740,18 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>27</v>
@@ -2762,18 +2762,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E19" s="36"/>
       <c r="F19" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>22</v>
@@ -2784,18 +2784,18 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>22</v>
@@ -2806,18 +2806,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>22</v>
@@ -2828,18 +2828,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="35"/>
       <c r="D22" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E22" s="36"/>
       <c r="F22" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>27</v>
@@ -2850,18 +2850,18 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E23" s="36"/>
       <c r="F23" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>22</v>
@@ -2872,24 +2872,24 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E24" s="36"/>
       <c r="F24" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="37" t="s">
         <v>31</v>
@@ -2901,18 +2901,18 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="35"/>
       <c r="D25" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>22</v>
@@ -2923,18 +2923,18 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>22</v>
@@ -2945,18 +2945,18 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E27" s="36"/>
       <c r="F27" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>27</v>
@@ -2967,18 +2967,18 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>28</v>
@@ -2989,18 +2989,18 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="35"/>
       <c r="D29" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E29" s="36"/>
       <c r="F29" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>22</v>
@@ -3011,18 +3011,18 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="35"/>
       <c r="D30" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E30" s="36"/>
       <c r="F30" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>22</v>
@@ -3033,18 +3033,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B31" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="35"/>
       <c r="D31" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>22</v>
@@ -3055,18 +3055,18 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B32" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="35"/>
       <c r="D32" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E32" s="36"/>
       <c r="F32" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>27</v>
@@ -3077,18 +3077,18 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="35"/>
       <c r="D33" s="36" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>22</v>
@@ -3099,14 +3099,14 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C34" s="35"/>
       <c r="D34" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E34" s="36" t="s">
         <v>22</v>
@@ -3119,14 +3119,14 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E35" s="36" t="s">
         <v>27</v>
@@ -3139,14 +3139,14 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="36" t="s">
         <v>22</v>
@@ -3159,14 +3159,14 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="35"/>
       <c r="D37" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>26</v>
@@ -3174,7 +3174,7 @@
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
       <c r="H37" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I37" s="37" t="s">
         <v>31</v>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="35" t="s">
         <v>41</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="35" t="s">
         <v>41</v>
@@ -3221,7 +3221,7 @@
       <c r="F39" s="36"/>
       <c r="G39" s="36"/>
       <c r="H39" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I39" s="37" t="s">
         <v>31</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>22</v>
@@ -3251,14 +3251,14 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="38" t="s">
         <v>22</v>
@@ -3271,18 +3271,18 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="38" t="s">
         <v>22</v>
@@ -3293,18 +3293,18 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="38"/>
       <c r="F43" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>27</v>
@@ -3315,18 +3315,18 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" s="38" t="s">
         <v>28</v>
@@ -3337,18 +3337,18 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="38" t="s">
         <v>22</v>
@@ -3359,18 +3359,18 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" s="38"/>
       <c r="F46" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>23</v>
@@ -3381,18 +3381,18 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47" s="38" t="s">
         <v>22</v>
@@ -3403,18 +3403,18 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="38" t="s">
         <v>27</v>
@@ -3425,24 +3425,24 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G49" s="38" t="s">
         <v>26</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I49" s="39" t="s">
         <v>31</v>
@@ -3454,14 +3454,14 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="33"/>
       <c r="D50" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>22</v>
@@ -3474,18 +3474,18 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="38" t="s">
         <v>22</v>
@@ -3496,18 +3496,18 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="38" t="s">
         <v>27</v>
@@ -3518,18 +3518,18 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="38" t="s">
         <v>22</v>
@@ -3540,18 +3540,18 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="33"/>
       <c r="D54" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="38" t="s">
         <v>28</v>
@@ -3562,24 +3562,24 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="38" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I55" s="39" t="s">
         <v>31</v>
@@ -3591,14 +3591,14 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E56" s="38" t="s">
         <v>22</v>
@@ -3611,18 +3611,18 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="38"/>
       <c r="F57" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="38" t="s">
         <v>22</v>
@@ -3633,18 +3633,18 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E58" s="38"/>
       <c r="F58" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="38" t="s">
         <v>28</v>
@@ -3655,24 +3655,24 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="38" t="s">
         <v>25</v>
       </c>
       <c r="H59" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" s="39" t="s">
         <v>31</v>
@@ -3684,18 +3684,18 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E60" s="38"/>
       <c r="F60" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G60" s="38" t="s">
         <v>22</v>
@@ -3706,18 +3706,18 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61" s="38"/>
       <c r="F61" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G61" s="38" t="s">
         <v>27</v>
@@ -3728,18 +3728,18 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="33"/>
       <c r="D62" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E62" s="38"/>
       <c r="F62" s="38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62" s="38" t="s">
         <v>22</v>
@@ -3750,18 +3750,18 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="33"/>
       <c r="D63" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" s="38"/>
       <c r="F63" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63" s="38" t="s">
         <v>22</v>
@@ -3772,18 +3772,18 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="33"/>
       <c r="D64" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" s="38"/>
       <c r="F64" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" s="38" t="s">
         <v>27</v>
@@ -3794,18 +3794,18 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C65" s="33"/>
       <c r="D65" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" s="38"/>
       <c r="F65" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G65" s="38" t="s">
         <v>22</v>
@@ -3816,18 +3816,18 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="33"/>
       <c r="D66" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" s="38"/>
       <c r="F66" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G66" s="38" t="s">
         <v>22</v>
@@ -3838,18 +3838,18 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B67" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C67" s="33"/>
       <c r="D67" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E67" s="38"/>
       <c r="F67" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G67" s="38" t="s">
         <v>27</v>
@@ -3860,18 +3860,18 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="33"/>
       <c r="D68" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E68" s="38"/>
       <c r="F68" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G68" s="38" t="s">
         <v>22</v>
@@ -3882,18 +3882,18 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C69" s="33"/>
       <c r="D69" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E69" s="38"/>
       <c r="F69" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>28</v>
@@ -3904,18 +3904,18 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="33"/>
       <c r="D70" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G70" s="38" t="s">
         <v>22</v>
@@ -3926,18 +3926,18 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="33"/>
       <c r="D71" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E71" s="38"/>
       <c r="F71" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G71" s="38" t="s">
         <v>23</v>
@@ -3948,18 +3948,18 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="33"/>
       <c r="D72" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E72" s="38"/>
       <c r="F72" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G72" s="38" t="s">
         <v>22</v>
@@ -3970,10 +3970,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="38" t="s">
@@ -3990,10 +3990,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="38" t="s">
@@ -4005,7 +4005,7 @@
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I74" s="39" t="s">
         <v>31</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>22</v>
@@ -4035,10 +4035,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>27</v>
@@ -4053,10 +4053,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" s="40" t="s">
         <v>22</v>
@@ -4071,10 +4071,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C78" s="40" t="s">
         <v>25</v>
@@ -4084,7 +4084,7 @@
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I78" s="41" t="s">
         <v>31</v>
@@ -4096,10 +4096,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" s="40" t="s">
         <v>22</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>28</v>
@@ -4132,10 +4132,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>27</v>
@@ -4150,10 +4150,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C82" s="40" t="s">
         <v>22</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" s="40"/>
       <c r="D83" s="34" t="s">
@@ -4188,10 +4188,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" s="40"/>
       <c r="D84" s="34" t="s">
@@ -4203,7 +4203,7 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I84" s="41" t="s">
         <v>31</v>
@@ -4215,10 +4215,10 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C85" s="42" t="s">
         <v>22</v>
@@ -4233,14 +4233,14 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="42"/>
       <c r="D86" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E86" s="43" t="s">
         <v>22</v>
@@ -4253,14 +4253,14 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C87" s="42"/>
       <c r="D87" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E87" s="43" t="s">
         <v>27</v>
@@ -4273,14 +4273,14 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C88" s="42"/>
       <c r="D88" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E88" s="43" t="s">
         <v>22</v>
@@ -4293,10 +4293,10 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" s="42"/>
       <c r="D89" s="43" t="s">
@@ -4313,10 +4313,10 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="42"/>
       <c r="D90" s="43" t="s">
@@ -4328,7 +4328,7 @@
       <c r="F90" s="43"/>
       <c r="G90" s="43"/>
       <c r="H90" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I90" s="44" t="s">
         <v>31</v>
@@ -4340,10 +4340,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B91" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>22</v>
@@ -4358,10 +4358,10 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>27</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>22</v>
@@ -4394,10 +4394,10 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>28</v>
@@ -4412,10 +4412,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="47" t="s">
         <v>25</v>
@@ -4425,7 +4425,7 @@
       <c r="F95" s="48"/>
       <c r="G95" s="48"/>
       <c r="H95" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I95" s="49" t="s">
         <v>32</v>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B96" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C96" s="47" t="s">
         <v>22</v>
@@ -4455,10 +4455,10 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B97" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C97" s="47" t="s">
         <v>27</v>
@@ -4473,10 +4473,10 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B98" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C98" s="47" t="s">
         <v>22</v>
@@ -4491,10 +4491,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B99" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C99" s="47" t="s">
         <v>26</v>
@@ -4504,7 +4504,7 @@
       <c r="F99" s="48"/>
       <c r="G99" s="48"/>
       <c r="H99" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I99" s="49" t="s">
         <v>31</v>
@@ -4516,10 +4516,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B100" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="47"/>
       <c r="D100" s="48" t="s">
@@ -4536,10 +4536,10 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="47"/>
       <c r="D101" s="48" t="s">
@@ -4551,7 +4551,7 @@
       <c r="F101" s="48"/>
       <c r="G101" s="48"/>
       <c r="H101" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I101" s="49" t="s">
         <v>31</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>30</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>30</v>
@@ -4594,7 +4594,7 @@
       <c r="F103" s="27"/>
       <c r="G103" s="27"/>
       <c r="H103" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I103" s="28" t="s">
         <v>31</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B104" s="23" t="s">
         <v>34</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B105" s="23" t="s">
         <v>35</v>
